--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>000601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>华宝创新优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>23.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166009</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -A</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000601</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝创新优选混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.51</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>中欧新动力混合(LOF) -A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>000124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>华宝服务优选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -950,15 +1120,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>87.51</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>5.71</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.85</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>90.35</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>90.35</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8572</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7836</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,4 +2703,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7907</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4621,4 +4622,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4630,7 +4631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4641,17 +4642,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4661,14 +4682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.09</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4677,14 +4720,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.96</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4693,14 +4758,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.359999999999999</v>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4709,13 +4796,3153 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6844</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6351</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7841,7 +7842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7852,17 +7853,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7872,14 +7893,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.66</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7888,14 +7931,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.09</v>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7904,14 +7969,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.96</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7920,14 +8007,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.359999999999999</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7936,13 +8045,3891 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5917</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11812,7 +11813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11823,17 +11824,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11843,14 +11864,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>103</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.2</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -11859,14 +11902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.66</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11875,14 +11940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.09</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -11891,14 +11978,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.96</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4750</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -11907,14 +12016,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.359999999999999</v>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -11923,13 +12054,5805 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5970</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5859</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5508</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>080003</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长盛积极配置债券</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
-        <v>45.02</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2</v>
+        <v>45.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>32.66</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>24.09</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>13.96</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>8.359999999999999</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.86</v>
       </c>
     </row>
@@ -600,6 +617,8298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3230</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9705</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7761</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7502</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5802</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015398</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011266</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6505,7 +14814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10475,7 +18784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13685,7 +21994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15603,7 +23912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16457,7 +24766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17045,7 +25354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
+++ b/数据整理/stocks/A股/上证主板/603596-伯特利.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D2" t="n">
-        <v>55.36</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>45.02</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2</v>
+        <v>45.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>32.66</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>24.09</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>13.96</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>8.359999999999999</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.86</v>
       </c>
     </row>
@@ -616,7 +633,8720 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2394</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0162</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9225</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015162</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014789</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>015398</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015163</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>011266</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>017485</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8908,7 +17638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14814,7 +23544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18784,7 +27514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21994,7 +30724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23912,7 +32642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24766,7 +33496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25352,820 +34082,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000601</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝创新优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9361</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9230</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8205</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7987</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7536</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005421</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧嘉泽灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7494</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001883</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5945</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5945</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4466</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000124</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝服务优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3979</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1490</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1328</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1260</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004236</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1227</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1003</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>580006</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴新经济混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>